--- a/Results/Profit SBAV Manuscript R50.xlsx
+++ b/Results/Profit SBAV Manuscript R50.xlsx
@@ -485,417 +485,417 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>0.0491NorthernFixed</t>
+          <t>0.0461NorthernFixed</t>
         </is>
       </c>
       <c r="B2">
-        <v>10941</v>
+        <v>1716</v>
       </c>
       <c r="C2">
-        <v>10941</v>
+        <v>1716</v>
       </c>
       <c r="D2">
-        <v>10941</v>
+        <v>1716</v>
       </c>
       <c r="E2">
-        <v>13190</v>
+        <v>3965</v>
       </c>
       <c r="F2">
-        <v>12690</v>
+        <v>3465</v>
       </c>
       <c r="G2">
-        <v>11756</v>
+        <v>2531</v>
       </c>
       <c r="H2">
-        <v>16186</v>
+        <v>6961</v>
       </c>
       <c r="I2">
-        <v>15020</v>
+        <v>5795</v>
       </c>
       <c r="J2">
-        <v>12840</v>
+        <v>3615</v>
       </c>
       <c r="K2">
-        <v>19184</v>
+        <v>9959</v>
       </c>
       <c r="L2">
-        <v>17352</v>
+        <v>8127</v>
       </c>
       <c r="M2">
-        <v>13926</v>
+        <v>4701</v>
       </c>
       <c r="N2">
-        <v>22181</v>
+        <v>12956</v>
       </c>
       <c r="O2">
-        <v>19683</v>
+        <v>10458</v>
       </c>
       <c r="P2">
-        <v>15011</v>
+        <v>5786</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>0.0491CentralFixed</t>
+          <t>0.0461CentralFixed</t>
         </is>
       </c>
       <c r="B3">
-        <v>10941</v>
+        <v>1716</v>
       </c>
       <c r="C3">
-        <v>10941</v>
+        <v>1716</v>
       </c>
       <c r="D3">
-        <v>10941</v>
+        <v>1716</v>
       </c>
       <c r="E3">
-        <v>13384</v>
+        <v>4159</v>
       </c>
       <c r="F3">
-        <v>12884</v>
+        <v>3659</v>
       </c>
       <c r="G3">
-        <v>11950</v>
+        <v>2725</v>
       </c>
       <c r="H3">
-        <v>16639</v>
+        <v>7414</v>
       </c>
       <c r="I3">
-        <v>15473</v>
+        <v>6248</v>
       </c>
       <c r="J3">
-        <v>13293</v>
+        <v>4068</v>
       </c>
       <c r="K3">
-        <v>19895</v>
+        <v>10670</v>
       </c>
       <c r="L3">
-        <v>18063</v>
+        <v>8838</v>
       </c>
       <c r="M3">
-        <v>14637</v>
+        <v>5412</v>
       </c>
       <c r="N3">
-        <v>23151</v>
+        <v>13926</v>
       </c>
       <c r="O3">
-        <v>20653</v>
+        <v>11428</v>
       </c>
       <c r="P3">
-        <v>15981</v>
+        <v>6756</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>0.0491Black BeltFixed</t>
+          <t>0.0461Black BeltFixed</t>
         </is>
       </c>
       <c r="B4">
-        <v>10941</v>
+        <v>1716</v>
       </c>
       <c r="C4">
-        <v>10941</v>
+        <v>1716</v>
       </c>
       <c r="D4">
-        <v>10941</v>
+        <v>1716</v>
       </c>
       <c r="E4">
-        <v>13511</v>
+        <v>4286</v>
       </c>
       <c r="F4">
-        <v>13011</v>
+        <v>3786</v>
       </c>
       <c r="G4">
-        <v>12077</v>
+        <v>2852</v>
       </c>
       <c r="H4">
-        <v>16934</v>
+        <v>7709</v>
       </c>
       <c r="I4">
-        <v>15768</v>
+        <v>6543</v>
       </c>
       <c r="J4">
-        <v>13588</v>
+        <v>4363</v>
       </c>
       <c r="K4">
-        <v>20359</v>
+        <v>11134</v>
       </c>
       <c r="L4">
-        <v>18527</v>
+        <v>9302</v>
       </c>
       <c r="M4">
-        <v>15101</v>
+        <v>5876</v>
       </c>
       <c r="N4">
-        <v>23784</v>
+        <v>14559</v>
       </c>
       <c r="O4">
-        <v>21285</v>
+        <v>12060</v>
       </c>
       <c r="P4">
-        <v>16613</v>
+        <v>7388</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>0.0491SouthernFixed</t>
+          <t>0.0461SouthernFixed</t>
         </is>
       </c>
       <c r="B5">
-        <v>10941</v>
+        <v>1716</v>
       </c>
       <c r="C5">
-        <v>10941</v>
+        <v>1716</v>
       </c>
       <c r="D5">
-        <v>10941</v>
+        <v>1716</v>
       </c>
       <c r="E5">
-        <v>13557</v>
+        <v>4332</v>
       </c>
       <c r="F5">
-        <v>13057</v>
+        <v>3832</v>
       </c>
       <c r="G5">
-        <v>12123</v>
+        <v>2898</v>
       </c>
       <c r="H5">
-        <v>17042</v>
+        <v>7817</v>
       </c>
       <c r="I5">
-        <v>15876</v>
+        <v>6651</v>
       </c>
       <c r="J5">
-        <v>13695</v>
+        <v>4470</v>
       </c>
       <c r="K5">
-        <v>20528</v>
+        <v>11303</v>
       </c>
       <c r="L5">
-        <v>18696</v>
+        <v>9471</v>
       </c>
       <c r="M5">
-        <v>15269</v>
+        <v>6044</v>
       </c>
       <c r="N5">
-        <v>24014</v>
+        <v>14789</v>
       </c>
       <c r="O5">
-        <v>21516</v>
+        <v>12291</v>
       </c>
       <c r="P5">
-        <v>16844</v>
+        <v>7619</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>0.0491NorthernTracking</t>
+          <t>0.0461NorthernTracking</t>
         </is>
       </c>
       <c r="B6">
-        <v>10941</v>
+        <v>1716</v>
       </c>
       <c r="C6">
-        <v>10941</v>
+        <v>1716</v>
       </c>
       <c r="D6">
-        <v>10941</v>
+        <v>1716</v>
       </c>
       <c r="E6">
-        <v>13690</v>
+        <v>4465</v>
       </c>
       <c r="F6">
-        <v>13323</v>
+        <v>4098</v>
       </c>
       <c r="G6">
-        <v>12956</v>
+        <v>3731</v>
       </c>
       <c r="H6">
-        <v>17353</v>
+        <v>8128</v>
       </c>
       <c r="I6">
-        <v>16497</v>
+        <v>7272</v>
       </c>
       <c r="J6">
-        <v>15642</v>
+        <v>6417</v>
       </c>
       <c r="K6">
-        <v>21017</v>
+        <v>11792</v>
       </c>
       <c r="L6">
-        <v>19672</v>
+        <v>10447</v>
       </c>
       <c r="M6">
-        <v>18328</v>
+        <v>9103</v>
       </c>
       <c r="N6">
-        <v>24680</v>
+        <v>15455</v>
       </c>
       <c r="O6">
-        <v>22847</v>
+        <v>13622</v>
       </c>
       <c r="P6">
-        <v>21014</v>
+        <v>11789</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>0.0491CentralTracking</t>
+          <t>0.0461CentralTracking</t>
         </is>
       </c>
       <c r="B7">
-        <v>10941</v>
+        <v>1716</v>
       </c>
       <c r="C7">
-        <v>10941</v>
+        <v>1716</v>
       </c>
       <c r="D7">
-        <v>10941</v>
+        <v>1716</v>
       </c>
       <c r="E7">
-        <v>13980</v>
+        <v>4755</v>
       </c>
       <c r="F7">
-        <v>13613</v>
+        <v>4388</v>
       </c>
       <c r="G7">
-        <v>13247</v>
+        <v>4022</v>
       </c>
       <c r="H7">
-        <v>18030</v>
+        <v>8805</v>
       </c>
       <c r="I7">
-        <v>17175</v>
+        <v>7950</v>
       </c>
       <c r="J7">
-        <v>16319</v>
+        <v>7094</v>
       </c>
       <c r="K7">
-        <v>22081</v>
+        <v>12856</v>
       </c>
       <c r="L7">
-        <v>20737</v>
+        <v>11512</v>
       </c>
       <c r="M7">
-        <v>19392</v>
+        <v>10167</v>
       </c>
       <c r="N7">
-        <v>26132</v>
+        <v>16907</v>
       </c>
       <c r="O7">
-        <v>24299</v>
+        <v>15074</v>
       </c>
       <c r="P7">
-        <v>22466</v>
+        <v>13241</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>0.0491Black BeltTracking</t>
+          <t>0.0461Black BeltTracking</t>
         </is>
       </c>
       <c r="B8">
-        <v>10941</v>
+        <v>1716</v>
       </c>
       <c r="C8">
-        <v>10941</v>
+        <v>1716</v>
       </c>
       <c r="D8">
-        <v>10941</v>
+        <v>1716</v>
       </c>
       <c r="E8">
-        <v>14123</v>
+        <v>4898</v>
       </c>
       <c r="F8">
-        <v>13757</v>
+        <v>4532</v>
       </c>
       <c r="G8">
-        <v>13390</v>
+        <v>4165</v>
       </c>
       <c r="H8">
-        <v>18364</v>
+        <v>9139</v>
       </c>
       <c r="I8">
-        <v>17509</v>
+        <v>8284</v>
       </c>
       <c r="J8">
-        <v>16653</v>
+        <v>7428</v>
       </c>
       <c r="K8">
-        <v>22606</v>
+        <v>13381</v>
       </c>
       <c r="L8">
-        <v>21262</v>
+        <v>12037</v>
       </c>
       <c r="M8">
-        <v>19917</v>
+        <v>10692</v>
       </c>
       <c r="N8">
-        <v>26848</v>
+        <v>17623</v>
       </c>
       <c r="O8">
-        <v>25014</v>
+        <v>15789</v>
       </c>
       <c r="P8">
-        <v>23181</v>
+        <v>13956</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>0.0491SouthernTracking</t>
+          <t>0.0461SouthernTracking</t>
         </is>
       </c>
       <c r="B9">
-        <v>10941</v>
+        <v>1716</v>
       </c>
       <c r="C9">
-        <v>10941</v>
+        <v>1716</v>
       </c>
       <c r="D9">
-        <v>10941</v>
+        <v>1716</v>
       </c>
       <c r="E9">
-        <v>14211</v>
+        <v>4986</v>
       </c>
       <c r="F9">
-        <v>13845</v>
+        <v>4620</v>
       </c>
       <c r="G9">
-        <v>13478</v>
+        <v>4253</v>
       </c>
       <c r="H9">
-        <v>18570</v>
+        <v>9345</v>
       </c>
       <c r="I9">
-        <v>17715</v>
+        <v>8490</v>
       </c>
       <c r="J9">
-        <v>16859</v>
+        <v>7634</v>
       </c>
       <c r="K9">
-        <v>22930</v>
+        <v>13705</v>
       </c>
       <c r="L9">
-        <v>21586</v>
+        <v>12361</v>
       </c>
       <c r="M9">
-        <v>20241</v>
+        <v>11016</v>
       </c>
       <c r="N9">
-        <v>27289</v>
+        <v>18064</v>
       </c>
       <c r="O9">
-        <v>25456</v>
+        <v>16231</v>
       </c>
       <c r="P9">
-        <v>23623</v>
+        <v>14398</v>
       </c>
     </row>
   </sheetData>

--- a/Results/Profit SBAV Manuscript R50.xlsx
+++ b/Results/Profit SBAV Manuscript R50.xlsx
@@ -1,19 +1,117 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <workbookPr date1904="false"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tigermailauburn-my.sharepoint.com/personal/bzm0094_auburn_edu/Documents/Collaboration/Ngbede M/Agrivoltaics-alabama/Results/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_FF4CE279F2CF6BE6556AD2D3A1985028382D3070" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A737B234-4DF8-4A9F-B1BB-B9C3DAF9F5DF}"/>
   <bookViews>
-    <workbookView activeTab="0" firstSheet="0" windowHeight="13125" windowWidth="13125" xWindow="0" yWindow="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+  <si>
+    <t>Row_Names</t>
+  </si>
+  <si>
+    <t>04.6</t>
+  </si>
+  <si>
+    <t>06.4</t>
+  </si>
+  <si>
+    <t>08.2</t>
+  </si>
+  <si>
+    <t>0.254.6</t>
+  </si>
+  <si>
+    <t>0.256.4</t>
+  </si>
+  <si>
+    <t>0.258.2</t>
+  </si>
+  <si>
+    <t>0.54.6</t>
+  </si>
+  <si>
+    <t>0.56.4</t>
+  </si>
+  <si>
+    <t>0.58.2</t>
+  </si>
+  <si>
+    <t>0.754.6</t>
+  </si>
+  <si>
+    <t>0.756.4</t>
+  </si>
+  <si>
+    <t>0.758.2</t>
+  </si>
+  <si>
+    <t>14.6</t>
+  </si>
+  <si>
+    <t>16.4</t>
+  </si>
+  <si>
+    <t>18.2</t>
+  </si>
+  <si>
+    <t>0.0461NorthernFixed</t>
+  </si>
+  <si>
+    <t>0.0461CentralFixed</t>
+  </si>
+  <si>
+    <t>0.0461Black BeltFixed</t>
+  </si>
+  <si>
+    <t>0.0461SouthernFixed</t>
+  </si>
+  <si>
+    <t>0.0461NorthernTracking</t>
+  </si>
+  <si>
+    <t>0.0461CentralTracking</t>
+  </si>
+  <si>
+    <t>0.0461Black BeltTracking</t>
+  </si>
+  <si>
+    <t>0.0461SouthernTracking</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -49,29 +147,38 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" id="1" name="Table1" displayName="Table1" ref="A1:P9" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="A1:P9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:P9" totalsRowShown="0">
+  <autoFilter ref="A1:P9" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="16">
-    <tableColumn id="1" name="Row_Names"/>
-    <tableColumn id="2" name="04.6"/>
-    <tableColumn id="3" name="06.4"/>
-    <tableColumn id="4" name="08.2"/>
-    <tableColumn id="5" name="0.254.6"/>
-    <tableColumn id="6" name="0.256.4"/>
-    <tableColumn id="7" name="0.258.2"/>
-    <tableColumn id="8" name="0.54.6"/>
-    <tableColumn id="9" name="0.56.4"/>
-    <tableColumn id="10" name="0.58.2"/>
-    <tableColumn id="11" name="0.754.6"/>
-    <tableColumn id="12" name="0.756.4"/>
-    <tableColumn id="13" name="0.758.2"/>
-    <tableColumn id="14" name="14.6"/>
-    <tableColumn id="15" name="16.4"/>
-    <tableColumn id="16" name="18.2"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Row_Names"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="04.6"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="06.4"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="08.2"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="0.254.6"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="0.256.4"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="0.258.2"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="0.54.6"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="0.56.4"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="0.58.2"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="0.754.6"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="0.756.4"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="0.758.2"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="14.6"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="16.4"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="18.2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -393,513 +500,475 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView showGridLines="1" showRowColHeaders="1" tabSelected="1" workbookViewId="0" zoomScale="100"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8.43" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="6.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Row_Names</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>04.6</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>06.4</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>08.2</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>0.254.6</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>0.256.4</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>0.258.2</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>0.54.6</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>0.56.4</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>0.58.2</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>0.754.6</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>0.756.4</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>0.758.2</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>14.6</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>16.4</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>18.2</t>
-        </is>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>0.0461NorthernFixed</t>
-        </is>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>16</v>
       </c>
       <c r="B2">
-        <v>1716</v>
+        <v>4176</v>
       </c>
       <c r="C2">
-        <v>1716</v>
+        <v>4176</v>
       </c>
       <c r="D2">
-        <v>1716</v>
+        <v>4176</v>
       </c>
       <c r="E2">
-        <v>3965</v>
+        <v>6425</v>
       </c>
       <c r="F2">
-        <v>3465</v>
+        <v>5925</v>
       </c>
       <c r="G2">
-        <v>2531</v>
+        <v>4991</v>
       </c>
       <c r="H2">
-        <v>6961</v>
+        <v>9421</v>
       </c>
       <c r="I2">
-        <v>5795</v>
+        <v>8255</v>
       </c>
       <c r="J2">
-        <v>3615</v>
+        <v>6075</v>
       </c>
       <c r="K2">
-        <v>9959</v>
+        <v>12419</v>
       </c>
       <c r="L2">
-        <v>8127</v>
+        <v>10587</v>
       </c>
       <c r="M2">
-        <v>4701</v>
+        <v>7160</v>
       </c>
       <c r="N2">
-        <v>12956</v>
+        <v>15416</v>
       </c>
       <c r="O2">
-        <v>10458</v>
+        <v>12918</v>
       </c>
       <c r="P2">
-        <v>5786</v>
+        <v>8246</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>0.0461CentralFixed</t>
-        </is>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>17</v>
       </c>
       <c r="B3">
-        <v>1716</v>
+        <v>4176</v>
       </c>
       <c r="C3">
-        <v>1716</v>
+        <v>4176</v>
       </c>
       <c r="D3">
-        <v>1716</v>
+        <v>4176</v>
       </c>
       <c r="E3">
-        <v>4159</v>
+        <v>6619</v>
       </c>
       <c r="F3">
-        <v>3659</v>
+        <v>6119</v>
       </c>
       <c r="G3">
-        <v>2725</v>
+        <v>5185</v>
       </c>
       <c r="H3">
-        <v>7414</v>
+        <v>9873</v>
       </c>
       <c r="I3">
-        <v>6248</v>
+        <v>8708</v>
       </c>
       <c r="J3">
-        <v>4068</v>
+        <v>6527</v>
       </c>
       <c r="K3">
-        <v>10670</v>
+        <v>13130</v>
       </c>
       <c r="L3">
-        <v>8838</v>
+        <v>11298</v>
       </c>
       <c r="M3">
-        <v>5412</v>
+        <v>7871</v>
       </c>
       <c r="N3">
-        <v>13926</v>
+        <v>16386</v>
       </c>
       <c r="O3">
-        <v>11428</v>
+        <v>13887</v>
       </c>
       <c r="P3">
-        <v>6756</v>
+        <v>9215</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>0.0461Black BeltFixed</t>
-        </is>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>18</v>
       </c>
       <c r="B4">
-        <v>1716</v>
+        <v>4176</v>
       </c>
       <c r="C4">
-        <v>1716</v>
+        <v>4176</v>
       </c>
       <c r="D4">
-        <v>1716</v>
+        <v>4176</v>
       </c>
       <c r="E4">
-        <v>4286</v>
+        <v>6746</v>
       </c>
       <c r="F4">
-        <v>3786</v>
+        <v>6246</v>
       </c>
       <c r="G4">
-        <v>2852</v>
+        <v>5312</v>
       </c>
       <c r="H4">
-        <v>7709</v>
+        <v>10169</v>
       </c>
       <c r="I4">
-        <v>6543</v>
+        <v>9003</v>
       </c>
       <c r="J4">
-        <v>4363</v>
+        <v>6823</v>
       </c>
       <c r="K4">
-        <v>11134</v>
+        <v>13594</v>
       </c>
       <c r="L4">
-        <v>9302</v>
+        <v>11762</v>
       </c>
       <c r="M4">
-        <v>5876</v>
+        <v>8335</v>
       </c>
       <c r="N4">
-        <v>14559</v>
+        <v>17018</v>
       </c>
       <c r="O4">
-        <v>12060</v>
+        <v>14520</v>
       </c>
       <c r="P4">
-        <v>7388</v>
+        <v>9848</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>0.0461SouthernFixed</t>
-        </is>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>19</v>
       </c>
       <c r="B5">
-        <v>1716</v>
+        <v>4176</v>
       </c>
       <c r="C5">
-        <v>1716</v>
+        <v>4176</v>
       </c>
       <c r="D5">
-        <v>1716</v>
+        <v>4176</v>
       </c>
       <c r="E5">
-        <v>4332</v>
+        <v>6792</v>
       </c>
       <c r="F5">
-        <v>3832</v>
+        <v>6292</v>
       </c>
       <c r="G5">
-        <v>2898</v>
+        <v>5357</v>
       </c>
       <c r="H5">
-        <v>7817</v>
+        <v>10276</v>
       </c>
       <c r="I5">
-        <v>6651</v>
+        <v>9110</v>
       </c>
       <c r="J5">
-        <v>4470</v>
+        <v>6930</v>
       </c>
       <c r="K5">
-        <v>11303</v>
+        <v>13762</v>
       </c>
       <c r="L5">
-        <v>9471</v>
+        <v>11930</v>
       </c>
       <c r="M5">
-        <v>6044</v>
+        <v>8504</v>
       </c>
       <c r="N5">
-        <v>14789</v>
+        <v>17249</v>
       </c>
       <c r="O5">
-        <v>12291</v>
+        <v>14750</v>
       </c>
       <c r="P5">
-        <v>7619</v>
+        <v>10078</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>0.0461NorthernTracking</t>
-        </is>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>20</v>
       </c>
       <c r="B6">
-        <v>1716</v>
+        <v>4176</v>
       </c>
       <c r="C6">
-        <v>1716</v>
+        <v>4176</v>
       </c>
       <c r="D6">
-        <v>1716</v>
+        <v>4176</v>
       </c>
       <c r="E6">
-        <v>4465</v>
+        <v>6924</v>
       </c>
       <c r="F6">
-        <v>4098</v>
+        <v>6558</v>
       </c>
       <c r="G6">
-        <v>3731</v>
+        <v>6191</v>
       </c>
       <c r="H6">
-        <v>8128</v>
+        <v>10588</v>
       </c>
       <c r="I6">
-        <v>7272</v>
+        <v>9732</v>
       </c>
       <c r="J6">
-        <v>6417</v>
+        <v>8877</v>
       </c>
       <c r="K6">
-        <v>11792</v>
+        <v>14251</v>
       </c>
       <c r="L6">
-        <v>10447</v>
+        <v>12907</v>
       </c>
       <c r="M6">
-        <v>9103</v>
+        <v>11563</v>
       </c>
       <c r="N6">
-        <v>15455</v>
+        <v>17915</v>
       </c>
       <c r="O6">
-        <v>13622</v>
+        <v>16082</v>
       </c>
       <c r="P6">
-        <v>11789</v>
+        <v>14249</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>0.0461CentralTracking</t>
-        </is>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>21</v>
       </c>
       <c r="B7">
-        <v>1716</v>
+        <v>4176</v>
       </c>
       <c r="C7">
-        <v>1716</v>
+        <v>4176</v>
       </c>
       <c r="D7">
-        <v>1716</v>
+        <v>4176</v>
       </c>
       <c r="E7">
-        <v>4755</v>
+        <v>7215</v>
       </c>
       <c r="F7">
-        <v>4388</v>
+        <v>6848</v>
       </c>
       <c r="G7">
-        <v>4022</v>
+        <v>6481</v>
       </c>
       <c r="H7">
-        <v>8805</v>
+        <v>11265</v>
       </c>
       <c r="I7">
-        <v>7950</v>
+        <v>10410</v>
       </c>
       <c r="J7">
-        <v>7094</v>
+        <v>9554</v>
       </c>
       <c r="K7">
-        <v>12856</v>
+        <v>15316</v>
       </c>
       <c r="L7">
-        <v>11512</v>
+        <v>13972</v>
       </c>
       <c r="M7">
-        <v>10167</v>
+        <v>12627</v>
       </c>
       <c r="N7">
-        <v>16907</v>
+        <v>19367</v>
       </c>
       <c r="O7">
-        <v>15074</v>
+        <v>17534</v>
       </c>
       <c r="P7">
-        <v>13241</v>
+        <v>15700</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>0.0461Black BeltTracking</t>
-        </is>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>22</v>
       </c>
       <c r="B8">
-        <v>1716</v>
+        <v>4176</v>
       </c>
       <c r="C8">
-        <v>1716</v>
+        <v>4176</v>
       </c>
       <c r="D8">
-        <v>1716</v>
+        <v>4176</v>
       </c>
       <c r="E8">
-        <v>4898</v>
+        <v>7358</v>
       </c>
       <c r="F8">
-        <v>4532</v>
+        <v>6991</v>
       </c>
       <c r="G8">
-        <v>4165</v>
+        <v>6625</v>
       </c>
       <c r="H8">
-        <v>9139</v>
+        <v>11599</v>
       </c>
       <c r="I8">
-        <v>8284</v>
+        <v>10743</v>
       </c>
       <c r="J8">
-        <v>7428</v>
+        <v>9888</v>
       </c>
       <c r="K8">
-        <v>13381</v>
+        <v>15841</v>
       </c>
       <c r="L8">
-        <v>12037</v>
+        <v>14496</v>
       </c>
       <c r="M8">
-        <v>10692</v>
+        <v>13152</v>
       </c>
       <c r="N8">
-        <v>17623</v>
+        <v>20082</v>
       </c>
       <c r="O8">
-        <v>15789</v>
+        <v>18249</v>
       </c>
       <c r="P8">
-        <v>13956</v>
+        <v>16416</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>0.0461SouthernTracking</t>
-        </is>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>23</v>
       </c>
       <c r="B9">
-        <v>1716</v>
+        <v>4176</v>
       </c>
       <c r="C9">
-        <v>1716</v>
+        <v>4176</v>
       </c>
       <c r="D9">
-        <v>1716</v>
+        <v>4176</v>
       </c>
       <c r="E9">
-        <v>4986</v>
+        <v>7446</v>
       </c>
       <c r="F9">
-        <v>4620</v>
+        <v>7080</v>
       </c>
       <c r="G9">
-        <v>4253</v>
+        <v>6713</v>
       </c>
       <c r="H9">
-        <v>9345</v>
+        <v>11805</v>
       </c>
       <c r="I9">
-        <v>8490</v>
+        <v>10950</v>
       </c>
       <c r="J9">
-        <v>7634</v>
+        <v>10094</v>
       </c>
       <c r="K9">
-        <v>13705</v>
+        <v>16165</v>
       </c>
       <c r="L9">
-        <v>12361</v>
+        <v>14820</v>
       </c>
       <c r="M9">
-        <v>11016</v>
+        <v>13476</v>
       </c>
       <c r="N9">
-        <v>18064</v>
+        <v>20524</v>
       </c>
       <c r="O9">
-        <v>16231</v>
+        <v>18691</v>
       </c>
       <c r="P9">
-        <v>14398</v>
+        <v>16858</v>
       </c>
     </row>
   </sheetData>
-  <printOptions gridLines="1" gridLinesSet="1"/>
+  <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <tableParts count="1">

--- a/Results/Profit SBAV Manuscript R50.xlsx
+++ b/Results/Profit SBAV Manuscript R50.xlsx
@@ -1,117 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tigermailauburn-my.sharepoint.com/personal/bzm0094_auburn_edu/Documents/Collaboration/Ngbede M/Agrivoltaics-alabama/Results/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_FF4CE279F2CF6BE6556AD2D3A1985028382D3070" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A737B234-4DF8-4A9F-B1BB-B9C3DAF9F5DF}"/>
+  <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="0" firstSheet="0" windowHeight="13125" windowWidth="13125" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
-  <si>
-    <t>Row_Names</t>
-  </si>
-  <si>
-    <t>04.6</t>
-  </si>
-  <si>
-    <t>06.4</t>
-  </si>
-  <si>
-    <t>08.2</t>
-  </si>
-  <si>
-    <t>0.254.6</t>
-  </si>
-  <si>
-    <t>0.256.4</t>
-  </si>
-  <si>
-    <t>0.258.2</t>
-  </si>
-  <si>
-    <t>0.54.6</t>
-  </si>
-  <si>
-    <t>0.56.4</t>
-  </si>
-  <si>
-    <t>0.58.2</t>
-  </si>
-  <si>
-    <t>0.754.6</t>
-  </si>
-  <si>
-    <t>0.756.4</t>
-  </si>
-  <si>
-    <t>0.758.2</t>
-  </si>
-  <si>
-    <t>14.6</t>
-  </si>
-  <si>
-    <t>16.4</t>
-  </si>
-  <si>
-    <t>18.2</t>
-  </si>
-  <si>
-    <t>0.0461NorthernFixed</t>
-  </si>
-  <si>
-    <t>0.0461CentralFixed</t>
-  </si>
-  <si>
-    <t>0.0461Black BeltFixed</t>
-  </si>
-  <si>
-    <t>0.0461SouthernFixed</t>
-  </si>
-  <si>
-    <t>0.0461NorthernTracking</t>
-  </si>
-  <si>
-    <t>0.0461CentralTracking</t>
-  </si>
-  <si>
-    <t>0.0461Black BeltTracking</t>
-  </si>
-  <si>
-    <t>0.0461SouthernTracking</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -147,38 +49,29 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:P9" totalsRowShown="0">
-  <autoFilter ref="A1:P9" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" id="1" name="Table1" displayName="Table1" ref="A1:P9" totalsRowCount="0" totalsRowShown="0">
+  <autoFilter ref="A1:P9"/>
   <tableColumns count="16">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Row_Names"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="04.6"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="06.4"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="08.2"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="0.254.6"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="0.256.4"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="0.258.2"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="0.54.6"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="0.56.4"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="0.58.2"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="0.754.6"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="0.756.4"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="0.758.2"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="14.6"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="16.4"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="18.2"/>
+    <tableColumn id="1" name="Row_Names"/>
+    <tableColumn id="2" name="04.6"/>
+    <tableColumn id="3" name="06.4"/>
+    <tableColumn id="4" name="08.2"/>
+    <tableColumn id="5" name="0.254.6"/>
+    <tableColumn id="6" name="0.256.4"/>
+    <tableColumn id="7" name="0.258.2"/>
+    <tableColumn id="8" name="0.54.6"/>
+    <tableColumn id="9" name="0.56.4"/>
+    <tableColumn id="10" name="0.58.2"/>
+    <tableColumn id="11" name="0.754.6"/>
+    <tableColumn id="12" name="0.756.4"/>
+    <tableColumn id="13" name="0.758.2"/>
+    <tableColumn id="14" name="14.6"/>
+    <tableColumn id="15" name="16.4"/>
+    <tableColumn id="16" name="18.2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -500,76 +393,100 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
-    </sheetView>
+    <sheetView showGridLines="1" showRowColHeaders="1" tabSelected="1" workbookViewId="0" zoomScale="100"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="6.85546875" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8.43" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" t="s">
-        <v>15</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Row_Names</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>04.6</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>06.4</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>08.2</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>0.254.6</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>0.256.4</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>0.258.2</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>0.54.6</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>0.56.4</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>0.58.2</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>0.754.6</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>0.756.4</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>0.758.2</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>14.6</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>16.4</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>18.2</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>16</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>0.0461NorthernFixed</t>
+        </is>
       </c>
       <c r="B2">
         <v>4176</v>
@@ -617,9 +534,11 @@
         <v>8246</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>17</v>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>0.0461CentralFixed</t>
+        </is>
       </c>
       <c r="B3">
         <v>4176</v>
@@ -667,9 +586,11 @@
         <v>9215</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>18</v>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>0.0461Black BeltFixed</t>
+        </is>
       </c>
       <c r="B4">
         <v>4176</v>
@@ -717,9 +638,11 @@
         <v>9848</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>19</v>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>0.0461SouthernFixed</t>
+        </is>
       </c>
       <c r="B5">
         <v>4176</v>
@@ -767,9 +690,11 @@
         <v>10078</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>20</v>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>0.0461NorthernTracking</t>
+        </is>
       </c>
       <c r="B6">
         <v>4176</v>
@@ -817,9 +742,11 @@
         <v>14249</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>21</v>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>0.0461CentralTracking</t>
+        </is>
       </c>
       <c r="B7">
         <v>4176</v>
@@ -867,9 +794,11 @@
         <v>15700</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>22</v>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>0.0461Black BeltTracking</t>
+        </is>
       </c>
       <c r="B8">
         <v>4176</v>
@@ -917,9 +846,11 @@
         <v>16416</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>23</v>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>0.0461SouthernTracking</t>
+        </is>
       </c>
       <c r="B9">
         <v>4176</v>
@@ -968,7 +899,7 @@
       </c>
     </row>
   </sheetData>
-  <printOptions gridLines="1"/>
+  <printOptions gridLines="1" gridLinesSet="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <tableParts count="1">
